--- a/z-API/crm_app 需求总结.xlsx
+++ b/z-API/crm_app 需求总结.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edmond/WorkSpace/crm/crm_app/z-API/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="167">
   <si>
     <t>首页</t>
   </si>
@@ -585,24 +590,29 @@
   <si>
     <t>对应右图</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用获取任务/日程列表接口 
+api.customerrelations.taskSchedule.find，
+功能已完成</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -610,7 +620,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -618,20 +628,20 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -675,7 +685,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -687,33 +697,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -735,8 +751,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3606800</xdr:colOff>
       <xdr:row>183</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1032,33 +1048,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G160"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="1"/>
-    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="27" style="3" customWidth="1"/>
-    <col min="5" max="5" width="32.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="48.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="5" max="5" width="32.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="48.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="64.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1081,20 +1098,20 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1103,24 +1120,28 @@
       <c r="G2" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="56.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="H2" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="76" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="4" t="s">
         <v>116</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1130,14 +1151,14 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="37.5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+    <row r="5" spans="1:8" ht="38" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>105</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -1147,12 +1168,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="37.5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+    <row r="6" spans="1:8" ht="38" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1160,22 +1181,22 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="4" t="s">
         <v>108</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
@@ -1186,11 +1207,11 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="4" t="s">
         <v>110</v>
       </c>
@@ -1201,11 +1222,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="4" t="s">
         <v>109</v>
       </c>
@@ -1216,19 +1237,19 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1240,11 +1261,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="37.5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
+    <row r="13" spans="1:8" ht="38" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
         <v>150</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -1257,11 +1278,11 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="56.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+    <row r="14" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="4" t="s">
         <v>17</v>
       </c>
@@ -1272,9 +1293,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
@@ -1285,9 +1306,9 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1298,9 +1319,9 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="4" t="s">
         <v>21</v>
       </c>
@@ -1311,9 +1332,9 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
@@ -1324,11 +1345,11 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1343,9 +1364,9 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
         <v>117</v>
@@ -1353,16 +1374,16 @@
       <c r="E20" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="4" t="s">
         <v>41</v>
       </c>
@@ -1370,12 +1391,12 @@
         <v>120</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="4" t="s">
         <v>47</v>
       </c>
@@ -1386,10 +1407,10 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="37.5">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5" t="s">
+    <row r="23" spans="1:7" ht="38" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -1403,10 +1424,10 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="4" t="s">
         <v>51</v>
       </c>
@@ -1416,10 +1437,10 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="4" t="s">
         <v>123</v>
       </c>
@@ -1429,10 +1450,10 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -1448,10 +1469,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="4" t="s">
         <v>126</v>
       </c>
@@ -1463,10 +1484,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="37.5">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+    <row r="28" spans="1:7" ht="38" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="4" t="s">
         <v>59</v>
       </c>
@@ -1478,10 +1499,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="4" t="s">
         <v>60</v>
       </c>
@@ -1489,10 +1510,10 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="4" t="s">
         <v>61</v>
       </c>
@@ -1500,10 +1521,10 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="4" t="s">
         <v>62</v>
       </c>
@@ -1511,10 +1532,10 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="4" t="s">
         <v>63</v>
       </c>
@@ -1522,10 +1543,10 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="4" t="s">
         <v>64</v>
       </c>
@@ -1535,10 +1556,10 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="4" t="s">
         <v>65</v>
       </c>
@@ -1548,10 +1569,10 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="4" t="s">
         <v>68</v>
       </c>
@@ -1561,10 +1582,10 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="4" t="s">
         <v>70</v>
       </c>
@@ -1574,12 +1595,12 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -1591,26 +1612,26 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
       <c r="C39" s="4" t="s">
         <v>41</v>
       </c>
@@ -1618,16 +1639,16 @@
         <v>45</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="4" t="s">
         <v>47</v>
       </c>
@@ -1638,10 +1659,10 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7" t="s">
         <v>128</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -1657,10 +1678,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="4" t="s">
         <v>74</v>
       </c>
@@ -1670,10 +1691,10 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="4" t="s">
         <v>77</v>
       </c>
@@ -1687,10 +1708,10 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="4" t="s">
         <v>80</v>
       </c>
@@ -1698,10 +1719,10 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="4" t="s">
         <v>129</v>
       </c>
@@ -1715,10 +1736,10 @@
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="37.5">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5" t="s">
+    <row r="46" spans="1:7" ht="38" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7" t="s">
         <v>132</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -1732,10 +1753,10 @@
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="4" t="s">
         <v>83</v>
       </c>
@@ -1747,10 +1768,10 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
       <c r="D48" s="4" t="s">
         <v>84</v>
       </c>
@@ -1758,10 +1779,10 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="4" t="s">
         <v>85</v>
       </c>
@@ -1769,10 +1790,10 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="4" t="s">
         <v>62</v>
       </c>
@@ -1780,10 +1801,10 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="4" t="s">
         <v>63</v>
       </c>
@@ -1791,10 +1812,10 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="4" t="s">
         <v>64</v>
       </c>
@@ -1804,10 +1825,10 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="4" t="s">
         <v>65</v>
       </c>
@@ -1817,10 +1838,10 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="4" t="s">
         <v>86</v>
       </c>
@@ -1830,10 +1851,10 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
       <c r="D55" s="4" t="s">
         <v>90</v>
       </c>
@@ -1841,12 +1862,12 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="4" t="s">
@@ -1858,10 +1879,10 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
       <c r="D57" s="4" t="s">
         <v>38</v>
       </c>
@@ -1869,10 +1890,10 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
       <c r="D58" s="4" t="s">
         <v>98</v>
       </c>
@@ -1880,10 +1901,10 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="4" t="s">
         <v>99</v>
       </c>
@@ -1891,12 +1912,12 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D60" s="4" t="s">
@@ -1908,10 +1929,10 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
       <c r="D61" s="4" t="s">
         <v>43</v>
       </c>
@@ -1921,9 +1942,9 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
       <c r="C62" s="4" t="s">
         <v>41</v>
       </c>
@@ -1934,190 +1955,190 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="8" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="6" t="s">
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8" t="s">
+      <c r="E64" s="6"/>
+      <c r="F64" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G64" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="8" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="8" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="6" t="s">
         <v>55</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="6" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="8" t="s">
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="8" t="s">
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="8" t="s">
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="8" t="s">
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="8" t="s">
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="8" t="s">
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="8" t="s">
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="8" t="s">
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="8" t="s">
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5" t="s">
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D77" s="4" t="s">
@@ -2129,10 +2150,10 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
       <c r="D78" s="4" t="s">
         <v>43</v>
       </c>
@@ -2142,9 +2163,9 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
       <c r="C79" s="4" t="s">
         <v>41</v>
       </c>
@@ -2155,196 +2176,196 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="8" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-    </row>
-    <row r="81" spans="1:7" ht="37.5">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="6" t="s">
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+    </row>
+    <row r="81" spans="1:7" ht="38" x14ac:dyDescent="0.25">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8" t="s">
+      <c r="E81" s="6"/>
+      <c r="F81" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G81" s="8" t="s">
+      <c r="G81" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="8" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="6" t="s">
         <v>101</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="8" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F83" s="6" t="s">
         <v>101</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="6" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="8" t="s">
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="8" t="s">
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="8" t="s">
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="8" t="s">
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="8" t="s">
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="8" t="s">
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="8" t="s">
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="8" t="s">
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="8" t="s">
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5" t="s">
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D94" s="4" t="s">
@@ -2356,10 +2377,10 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
       <c r="D95" s="4" t="s">
         <v>43</v>
       </c>
@@ -2369,9 +2390,9 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
       <c r="C96" s="4" t="s">
         <v>41</v>
       </c>
@@ -2382,188 +2403,188 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="8" t="s">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="6" t="s">
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8" t="s">
+      <c r="E98" s="6"/>
+      <c r="F98" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G98" s="8" t="s">
+      <c r="G98" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="8" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="8" t="s">
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="6" t="s">
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="8" t="s">
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="8" t="s">
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="8" t="s">
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="8" t="s">
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="8" t="s">
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="8" t="s">
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E107" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="8" t="s">
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E108" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="8" t="s">
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="E109" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="8" t="s">
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E110" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5" t="s">
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D111" s="4" t="s">
@@ -2575,10 +2596,10 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
     </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
       <c r="D112" s="4" t="s">
         <v>43</v>
       </c>
@@ -2588,9 +2609,9 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
     </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
       <c r="C113" s="4" t="s">
         <v>41</v>
       </c>
@@ -2601,188 +2622,188 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
     </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="8" t="s">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8" t="s">
+      <c r="E114" s="6"/>
+      <c r="F114" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G114" s="8" t="s">
+      <c r="G114" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="6" t="s">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="8" t="s">
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E116" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="8" t="s">
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="E117" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="6" t="s">
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="8" t="s">
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="7"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="8" t="s">
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="8" t="s">
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="8" t="s">
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="7"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="8" t="s">
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="7"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="8" t="s">
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="7"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="E124" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="8" t="s">
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="7"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="E125" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="8" t="s">
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="7"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E126" s="8" t="s">
+      <c r="E126" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="8" t="s">
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="7"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="E127" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5" t="s">
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="7"/>
+      <c r="B128" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C128" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D128" s="4" t="s">
@@ -2794,10 +2815,10 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
     </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="7"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
       <c r="D129" s="4" t="s">
         <v>43</v>
       </c>
@@ -2807,9 +2828,9 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
     </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="7"/>
+      <c r="B130" s="7"/>
       <c r="C130" s="4" t="s">
         <v>41</v>
       </c>
@@ -2820,145 +2841,145 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
     </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="8" t="s">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="7"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="D131" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="6" t="s">
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="7"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="D132" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="8" t="s">
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="7"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="8" t="s">
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="7"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="8" t="s">
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="7"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="8" t="s">
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="7"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="8" t="s">
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="7"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="8" t="s">
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="7"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E138" s="8" t="s">
+      <c r="E138" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F138" s="8"/>
-      <c r="G138" s="8"/>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="8" t="s">
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="7"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E139" s="8" t="s">
+      <c r="E139" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="8" t="s">
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="7"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E140" s="8" t="s">
+      <c r="E140" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="8" t="s">
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="7"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E141" s="8" t="s">
+      <c r="E141" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F141" s="8"/>
-      <c r="G141" s="8"/>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5" t="s">
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="7"/>
+      <c r="B142" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C142" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D142" s="4" t="s">
@@ -2970,14 +2991,14 @@
       <c r="F142" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G142" s="8" t="s">
+      <c r="G142" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="7"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
       <c r="D143" s="4" t="s">
         <v>43</v>
       </c>
@@ -2987,9 +3008,9 @@
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
     </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="7"/>
+      <c r="B144" s="7"/>
       <c r="C144" s="4" t="s">
         <v>41</v>
       </c>
@@ -3000,141 +3021,141 @@
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
     </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="8" t="s">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="7"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="D145" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E145" s="8"/>
+      <c r="E145" s="6"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
     </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="6" t="s">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="7"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D146" s="8" t="s">
+      <c r="D146" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E146" s="8"/>
+      <c r="E146" s="6"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
-      <c r="C147" s="6"/>
-      <c r="D147" s="8" t="s">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="7"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E147" s="8"/>
+      <c r="E147" s="6"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="8" t="s">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="7"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E148" s="8"/>
+      <c r="E148" s="6"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="5"/>
-      <c r="B149" s="5"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="8" t="s">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="7"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E149" s="8"/>
+      <c r="E149" s="6"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="8" t="s">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="7"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E150" s="8"/>
+      <c r="E150" s="6"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="8" t="s">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="7"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E151" s="8"/>
+      <c r="E151" s="6"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
     </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="8" t="s">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="7"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E152" s="8" t="s">
+      <c r="E152" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
     </row>
-    <row r="153" spans="1:7">
-      <c r="A153" s="5"/>
-      <c r="B153" s="5"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="8" t="s">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="7"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E153" s="8" t="s">
+      <c r="E153" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
     </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="5"/>
-      <c r="B154" s="5"/>
-      <c r="C154" s="6"/>
-      <c r="D154" s="8" t="s">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="7"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E154" s="8" t="s">
+      <c r="E154" s="6" t="s">
         <v>89</v>
       </c>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
     </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="5"/>
-      <c r="B155" s="5"/>
-      <c r="C155" s="6"/>
-      <c r="D155" s="8" t="s">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="7"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E155" s="8" t="s">
+      <c r="E155" s="6" t="s">
         <v>88</v>
       </c>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
     </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="5"/>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="7"/>
       <c r="B156" s="4" t="s">
         <v>35</v>
       </c>
@@ -3152,9 +3173,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="5"/>
-      <c r="B157" s="5" t="s">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="7"/>
+      <c r="B157" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C157" s="4" t="s">
@@ -3169,9 +3190,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="5"/>
-      <c r="B158" s="5"/>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="7"/>
+      <c r="B158" s="7"/>
       <c r="C158" s="4" t="s">
         <v>94</v>
       </c>
@@ -3180,9 +3201,9 @@
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
     </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="5"/>
-      <c r="B159" s="5"/>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="7"/>
+      <c r="B159" s="7"/>
       <c r="C159" s="4" t="s">
         <v>95</v>
       </c>
@@ -3191,8 +3212,8 @@
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
     </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="5"/>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="7"/>
       <c r="B160" s="4" t="s">
         <v>78</v>
       </c>
@@ -3209,32 +3230,8 @@
       <c r="G160" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="B142:B155"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C146:C155"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="B111:B127"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C115:C117"/>
-    <mergeCell ref="C118:C127"/>
-    <mergeCell ref="B128:B141"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="C132:C141"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="C84:C93"/>
-    <mergeCell ref="B94:B110"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C101:C110"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B19:B36"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C36"/>
-    <mergeCell ref="D5:D11"/>
+  <mergeCells count="42">
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="A2:A18"/>
     <mergeCell ref="A19:A160"/>
     <mergeCell ref="B2:B18"/>
@@ -3251,6 +3248,31 @@
     <mergeCell ref="C64:C66"/>
     <mergeCell ref="C67:C76"/>
     <mergeCell ref="B77:B93"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B19:B36"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C36"/>
+    <mergeCell ref="D5:D11"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="C84:C93"/>
+    <mergeCell ref="B94:B110"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C101:C110"/>
+    <mergeCell ref="B142:B155"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C146:C155"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="B111:B127"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="C118:C127"/>
+    <mergeCell ref="B128:B141"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="C132:C141"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
